--- a/data/sources/TradeRES_D2_1_Scenario_data_Corrected.xlsx
+++ b/data/sources/TradeRES_D2_1_Scenario_data_Corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53879218-67B4-48A5-8682-EB063203A1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551B24C-2BDB-4390-9804-FDFE5D0FBCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="370" windowWidth="19200" windowHeight="10430" tabRatio="785" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-10515" yWindow="-14430" windowWidth="21600" windowHeight="11265" tabRatio="785" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -2141,7 +2141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2227,6 +2227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,7 +2374,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2503,6 +2509,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -22850,7 +22859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25266,11 +25275,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -28443,7 +28452,7 @@
         <v>7</v>
       </c>
       <c r="S30" s="31">
-        <f t="shared" ref="S30:S33" si="12">IFERROR(ROUND(-PMT(R30/100,Q30,1),6),0)</f>
+        <f t="shared" ref="S30:S32" si="12">IFERROR(ROUND(-PMT(R30/100,Q30,1),6),0)</f>
         <v>9.4393000000000005E-2</v>
       </c>
       <c r="T30" s="31">
@@ -34699,7 +34708,7 @@
       </c>
     </row>
     <row r="111" spans="1:42" ht="28" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="81" t="s">
         <v>318</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -34915,7 +34924,7 @@
       </c>
     </row>
     <row r="116" spans="1:44" ht="28" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="81" t="s">
         <v>328</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -35141,7 +35150,7 @@
       <c r="AL118" s="39"/>
     </row>
     <row r="119" spans="1:44" ht="28" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="81" t="s">
         <v>328</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -37122,18 +37131,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37283,14 +37292,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B86DC8-3E2D-43CE-AD36-E688A1669DE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33403C9F-F7D8-4D9C-ABE9-5CDDE161B5F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -37302,6 +37303,14 @@
     <ds:schemaRef ds:uri="2be9f748-766b-46f3-b477-b73214dbaefe"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B86DC8-3E2D-43CE-AD36-E688A1669DE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/sources/TradeRES_D2_1_Scenario_data_Corrected.xlsx
+++ b/data/sources/TradeRES_D2_1_Scenario_data_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551B24C-2BDB-4390-9804-FDFE5D0FBCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2DDE6-DC80-4E4A-A2C2-9A83B1A4CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-10515" yWindow="-14430" windowWidth="21600" windowHeight="11265" tabRatio="785" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -2501,6 +2501,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2509,9 +2512,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6312,26 +6312,26 @@
       <c r="E1" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="79" t="s">
         <v>508</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79" t="s">
         <v>509</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>510</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79" t="s">
         <v>511</v>
       </c>
-      <c r="O1" s="78"/>
+      <c r="O1" s="79"/>
     </row>
     <row r="2" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -11780,14 +11780,14 @@
       </c>
     </row>
     <row r="120" spans="1:15" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="79" t="s">
+      <c r="A120" s="80" t="s">
         <v>551</v>
       </c>
-      <c r="B120" s="79"/>
-      <c r="C120" s="79"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G121" s="1" t="s">
@@ -22859,7 +22859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25275,11 +25277,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BI138"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
+      <selection pane="bottomRight" activeCell="AF76" sqref="AF76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -33616,7 +33618,7 @@
         <v>7</v>
       </c>
       <c r="S95" s="31">
-        <f t="shared" si="17"/>
+        <f>IFERROR(ROUND(-PMT(R95/100,Q95,1),6),0)</f>
         <v>9.4393000000000005E-2</v>
       </c>
       <c r="T95" s="31">
@@ -34708,7 +34710,7 @@
       </c>
     </row>
     <row r="111" spans="1:42" ht="28" x14ac:dyDescent="0.3">
-      <c r="A111" s="81" t="s">
+      <c r="A111" s="78" t="s">
         <v>318</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -34924,7 +34926,7 @@
       </c>
     </row>
     <row r="116" spans="1:44" ht="28" x14ac:dyDescent="0.3">
-      <c r="A116" s="81" t="s">
+      <c r="A116" s="78" t="s">
         <v>328</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -34976,7 +34978,7 @@
         <v>7</v>
       </c>
       <c r="S116" s="31">
-        <f t="shared" si="17"/>
+        <f>IFERROR(ROUND(-PMT(R116/100,Q116,1),6),0)</f>
         <v>0.109795</v>
       </c>
       <c r="T116" s="31">
@@ -35150,7 +35152,7 @@
       <c r="AL118" s="39"/>
     </row>
     <row r="119" spans="1:44" ht="28" x14ac:dyDescent="0.3">
-      <c r="A119" s="81" t="s">
+      <c r="A119" s="78" t="s">
         <v>328</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -37131,18 +37133,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37292,6 +37294,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B86DC8-3E2D-43CE-AD36-E688A1669DE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33403C9F-F7D8-4D9C-ABE9-5CDDE161B5F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -37303,14 +37313,6 @@
     <ds:schemaRef ds:uri="2be9f748-766b-46f3-b477-b73214dbaefe"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B86DC8-3E2D-43CE-AD36-E688A1669DE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
